--- a/代码度量值.xlsx
+++ b/代码度量值.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$367</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$387</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="266">
   <si>
     <t>范围</t>
   </si>
@@ -311,15 +311,15 @@
     <t>btn_WindowsOne_On_Click(object, EventArgs) : void</t>
   </si>
   <si>
+    <t>btn_WindowsOne_Off_Click(object, EventArgs) : void</t>
+  </si>
+  <si>
+    <t>btn_WindowsTwo_On_Click(object, EventArgs) : void</t>
+  </si>
+  <si>
     <t>btn_WindowsTwo_Off_Click(object, EventArgs) : void</t>
   </si>
   <si>
-    <t>btn_WindowsOne_Off_Click(object, EventArgs) : void</t>
-  </si>
-  <si>
-    <t>btn_WindowsTwo_On_Click(object, EventArgs) : void</t>
-  </si>
-  <si>
     <t>btn_ModeLK_Click(object, EventArgs) : void</t>
   </si>
   <si>
@@ -398,6 +398,9 @@
     <t>StartUserControl() : void</t>
   </si>
   <si>
+    <t>CloseForm() : void</t>
+  </si>
+  <si>
     <t>StartDataBase() : void</t>
   </si>
   <si>
@@ -410,15 +413,12 @@
     <t>frm_Main()</t>
   </si>
   <si>
+    <t>HourChange(int) : string</t>
+  </si>
+  <si>
     <t>MinuteChange(int) : string</t>
   </si>
   <si>
-    <t>ServerClose() : void</t>
-  </si>
-  <si>
-    <t>HourChange(int) : string</t>
-  </si>
-  <si>
     <t>panel_Information_MouseMove(object, MouseEventArgs) : void</t>
   </si>
   <si>
@@ -440,6 +440,9 @@
     <t>Notice_Icon_Click(object, EventArgs) : void</t>
   </si>
   <si>
+    <t>frm_Main_FormClosed(object, FormClosedEventArgs) : void</t>
+  </si>
+  <si>
     <t>btn_ConsultationRoomOne_Click(object, EventArgs) : void</t>
   </si>
   <si>
@@ -452,6 +455,9 @@
     <t>btn_ReadingRoomTwo_Click(object, EventArgs) : void</t>
   </si>
   <si>
+    <t>CheckIdentity() : void</t>
+  </si>
+  <si>
     <t>btn_ReadingRoomOne_Click(object, EventArgs) : void</t>
   </si>
   <si>
@@ -464,24 +470,45 @@
     <t>TimeRefreshThread() : void</t>
   </si>
   <si>
-    <t>frm_Main_FormClosed(object, FormClosedEventArgs) : void</t>
+    <t>ShowMainForm_Click(object, EventArgs) : void</t>
+  </si>
+  <si>
+    <t>label_Minnor_Click(object, EventArgs) : void</t>
+  </si>
+  <si>
+    <t>label_Close_Click(object, EventArgs) : void</t>
   </si>
   <si>
     <t>CloseMainForm_Click(object, EventArgs) : void</t>
   </si>
   <si>
-    <t>label_Close_Click(object, EventArgs) : void</t>
-  </si>
-  <si>
-    <t>ShowMainForm_Click(object, EventArgs) : void</t>
-  </si>
-  <si>
-    <t>label_Minnor_Click(object, EventArgs) : void</t>
-  </si>
-  <si>
     <t>AnimateWindow(IntPtr, int, int) : bool</t>
   </si>
   <si>
+    <t>frm_QuitCheck</t>
+  </si>
+  <si>
+    <t>ConfirmQuit() : void</t>
+  </si>
+  <si>
+    <t>CheckPasswd(string) : bool</t>
+  </si>
+  <si>
+    <t>frm_QuitCheck(frm_Main)</t>
+  </si>
+  <si>
+    <t>InitItem(frm_Main) : void</t>
+  </si>
+  <si>
+    <t>frm_QuitCheck_Load(object, EventArgs) : void</t>
+  </si>
+  <si>
+    <t>btn_QuitConfirm_Click(object, EventArgs) : void</t>
+  </si>
+  <si>
+    <t>btn_QuitReturn_Click(object, EventArgs) : void</t>
+  </si>
+  <si>
     <t>ControlRefreshHelper</t>
   </si>
   <si>
@@ -660,6 +687,9 @@
   </si>
   <si>
     <t>GetCameraCommand(string, string) : string</t>
+  </si>
+  <si>
+    <t>GetMD5String(string) : string</t>
   </si>
   <si>
     <t>DataHandleHelper()</t>
@@ -801,10 +831,93 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -818,15 +931,51 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -834,22 +983,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="20% - 着色 1" xfId="10" builtinId="30"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="计算" xfId="6" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="8" builtinId="23"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="链接单元格" xfId="7" builtinId="24"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="输出" xfId="5" builtinId="21"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1127,55 +1400,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J367"/>
+  <dimension ref="A1:J387"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J367"/>
+    <sheetView tabSelected="1" topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.625" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.625" customWidth="1"/>
+    <col min="5" max="5" width="64.625" customWidth="1"/>
+    <col min="6" max="6" width="19.75" customWidth="1"/>
     <col min="7" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2050,19 +2324,19 @@
         <v>11</v>
       </c>
       <c r="F30" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G30" s="1">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="H30" s="1">
         <v>7</v>
       </c>
       <c r="I30" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J30" s="1">
-        <v>4074</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2082,19 +2356,19 @@
         <v>11</v>
       </c>
       <c r="F31" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" s="1">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="H31" s="1">
         <v>7</v>
       </c>
       <c r="I31" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J31" s="1">
-        <v>4074</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2126,7 +2400,7 @@
         <v>45</v>
       </c>
       <c r="J32" s="1">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -3416,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3448,7 +3722,7 @@
         <v>45</v>
       </c>
       <c r="J76" s="1">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -4738,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
@@ -4761,7 +5035,7 @@
         <v>50</v>
       </c>
       <c r="G120" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H120" s="1">
         <v>7</v>
@@ -4770,7 +5044,7 @@
         <v>44</v>
       </c>
       <c r="J120" s="1">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
@@ -4937,20 +5211,20 @@
         <v>88</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="F126" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G126" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J126" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
@@ -4967,20 +5241,20 @@
         <v>88</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="F127" s="1">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G127" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J127" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
@@ -5297,7 +5571,7 @@
         <v>88</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F138" s="1">
         <v>86</v>
@@ -5327,7 +5601,7 @@
         <v>88</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F139" s="1">
         <v>86</v>
@@ -5357,7 +5631,7 @@
         <v>88</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F140" s="1">
         <v>86</v>
@@ -5387,7 +5661,7 @@
         <v>88</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="F141" s="1">
         <v>86</v>
@@ -5537,7 +5811,7 @@
         <v>88</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F146" s="1">
         <v>90</v>
@@ -5567,7 +5841,7 @@
         <v>88</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F147" s="1">
         <v>90</v>
@@ -5687,17 +5961,17 @@
         <v>88</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="F151" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" s="1">
         <v>1</v>
@@ -5705,7 +5979,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>39</v>
@@ -5714,30 +5988,28 @@
         <v>40</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F152" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G152" s="1">
-        <v>53</v>
-      </c>
-      <c r="H152" s="1">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H152" s="1"/>
       <c r="I152" s="1">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="J152" s="1">
-        <v>704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>39</v>
@@ -5749,20 +6021,22 @@
         <v>101</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F153" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G153" s="1">
-        <v>1</v>
-      </c>
-      <c r="H153" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="H153" s="1">
+        <v>7</v>
+      </c>
       <c r="I153" s="1">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J153" s="1">
-        <v>498</v>
+        <v>707</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
@@ -5779,20 +6053,20 @@
         <v>101</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F154" s="1">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G154" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J154" s="1">
-        <v>48</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
@@ -5809,20 +6083,20 @@
         <v>101</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="F155" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G155" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J155" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -5839,20 +6113,20 @@
         <v>101</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F156" s="1">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G156" s="1">
         <v>5</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J156" s="1">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
@@ -5869,20 +6143,20 @@
         <v>101</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F157" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G157" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J157" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
@@ -5899,20 +6173,20 @@
         <v>101</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="F158" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G158" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J158" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
@@ -5932,17 +6206,17 @@
         <v>43</v>
       </c>
       <c r="F159" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G159" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1">
         <v>3</v>
       </c>
       <c r="J159" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
@@ -5959,20 +6233,20 @@
         <v>101</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F160" s="1">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160" s="1"/>
       <c r="I160" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J160" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
@@ -5989,17 +6263,17 @@
         <v>101</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F161" s="1">
         <v>62</v>
       </c>
       <c r="G161" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161" s="1"/>
       <c r="I161" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J161" s="1">
         <v>9</v>
@@ -6019,7 +6293,7 @@
         <v>101</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F162" s="1">
         <v>62</v>
@@ -6029,10 +6303,10 @@
       </c>
       <c r="H162" s="1"/>
       <c r="I162" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J162" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
@@ -6049,17 +6323,17 @@
         <v>101</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="F163" s="1">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
       </c>
       <c r="H163" s="1"/>
       <c r="I163" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J163" s="1">
         <v>8</v>
@@ -6079,20 +6353,20 @@
         <v>101</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="F164" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G164" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J164" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -6109,20 +6383,20 @@
         <v>101</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F165" s="1">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1">
         <v>1</v>
       </c>
       <c r="J165" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
@@ -6139,17 +6413,17 @@
         <v>101</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F166" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G166" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J166" s="1">
         <v>3</v>
@@ -6169,17 +6443,17 @@
         <v>101</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F167" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G167" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J167" s="1">
         <v>3</v>
@@ -6199,20 +6473,20 @@
         <v>101</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F168" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J168" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
@@ -6229,7 +6503,7 @@
         <v>101</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F169" s="1">
         <v>86</v>
@@ -6259,7 +6533,7 @@
         <v>101</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F170" s="1">
         <v>86</v>
@@ -6379,10 +6653,10 @@
         <v>101</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F174" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -6409,7 +6683,7 @@
         <v>101</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F175" s="1">
         <v>90</v>
@@ -6439,7 +6713,7 @@
         <v>101</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F176" s="1">
         <v>90</v>
@@ -6469,7 +6743,7 @@
         <v>101</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F177" s="1">
         <v>90</v>
@@ -6499,7 +6773,7 @@
         <v>101</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F178" s="1">
         <v>90</v>
@@ -6559,17 +6833,17 @@
         <v>101</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="F180" s="1">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J180" s="1">
         <v>1</v>
@@ -6589,7 +6863,7 @@
         <v>101</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F181" s="1">
         <v>98</v>
@@ -6619,7 +6893,7 @@
         <v>101</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F182" s="1">
         <v>98</v>
@@ -6649,10 +6923,10 @@
         <v>101</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F183" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
@@ -6667,7 +6941,7 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>39</v>
@@ -6676,25 +6950,23 @@
         <v>40</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="F184" s="1">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G184" s="1">
-        <v>18</v>
-      </c>
-      <c r="H184" s="1">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H184" s="1"/>
       <c r="I184" s="1">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J184" s="1">
-        <v>184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
@@ -6708,28 +6980,28 @@
         <v>40</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="F185" s="1">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J185" s="1">
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>39</v>
@@ -6741,20 +7013,22 @@
         <v>105</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F186" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G186" s="1">
-        <v>2</v>
-      </c>
-      <c r="H186" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="H186" s="1">
+        <v>7</v>
+      </c>
       <c r="I186" s="1">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J186" s="1">
-        <v>11</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
@@ -6771,20 +7045,20 @@
         <v>105</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="F187" s="1">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="G187" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J187" s="1">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
@@ -6801,20 +7075,20 @@
         <v>105</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F188" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G188" s="1">
         <v>2</v>
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J188" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
@@ -6831,10 +7105,10 @@
         <v>105</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F189" s="1">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G189" s="1">
         <v>2</v>
@@ -6844,7 +7118,7 @@
         <v>8</v>
       </c>
       <c r="J189" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
@@ -6861,20 +7135,20 @@
         <v>105</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F190" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H190" s="1"/>
       <c r="I190" s="1">
         <v>4</v>
       </c>
       <c r="J190" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
@@ -6891,20 +7165,20 @@
         <v>105</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F191" s="1">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G191" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J191" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
@@ -6921,20 +7195,20 @@
         <v>105</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F192" s="1">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J192" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
@@ -6951,20 +7225,20 @@
         <v>105</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="F193" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G193" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -6981,20 +7255,20 @@
         <v>105</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F194" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
@@ -7011,7 +7285,7 @@
         <v>105</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F195" s="1">
         <v>100</v>
@@ -7024,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="J195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
@@ -7041,7 +7315,7 @@
         <v>105</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F196" s="1">
         <v>100</v>
@@ -7059,7 +7333,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>39</v>
@@ -7068,25 +7342,23 @@
         <v>40</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F197" s="1">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="G197" s="1">
-        <v>93</v>
-      </c>
-      <c r="H197" s="1">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H197" s="1"/>
       <c r="I197" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="J197" s="1">
-        <v>553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
@@ -7100,28 +7372,28 @@
         <v>40</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="F198" s="1">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
       </c>
       <c r="H198" s="1"/>
       <c r="I198" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J198" s="1">
-        <v>326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>39</v>
@@ -7133,20 +7405,22 @@
         <v>116</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="F199" s="1">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G199" s="1">
+        <v>96</v>
+      </c>
+      <c r="H199" s="1">
         <v>7</v>
       </c>
-      <c r="H199" s="1"/>
       <c r="I199" s="1">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="J199" s="1">
-        <v>37</v>
+        <v>560</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
@@ -7163,20 +7437,20 @@
         <v>116</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="F200" s="1">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G200" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H200" s="1"/>
       <c r="I200" s="1">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J200" s="1">
-        <v>26</v>
+        <v>326</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
@@ -7193,20 +7467,20 @@
         <v>116</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F201" s="1">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G201" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H201" s="1"/>
       <c r="I201" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J201" s="1">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
@@ -7223,20 +7497,20 @@
         <v>116</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F202" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G202" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H202" s="1"/>
       <c r="I202" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J202" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
@@ -7253,20 +7527,20 @@
         <v>116</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F203" s="1">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G203" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H203" s="1"/>
       <c r="I203" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J203" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
@@ -7283,20 +7557,20 @@
         <v>116</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F204" s="1">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G204" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J204" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
@@ -7313,20 +7587,20 @@
         <v>116</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F205" s="1">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G205" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J205" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
@@ -7343,20 +7617,20 @@
         <v>116</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F206" s="1">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G206" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1">
         <v>5</v>
       </c>
       <c r="J206" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
@@ -7373,20 +7647,20 @@
         <v>116</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F207" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G207" s="1">
         <v>2</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J207" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
@@ -7403,20 +7677,20 @@
         <v>116</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F208" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G208" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J208" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
@@ -7433,20 +7707,20 @@
         <v>116</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F209" s="1">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G209" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J209" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
@@ -7463,20 +7737,20 @@
         <v>116</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F210" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G210" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J210" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
@@ -7493,17 +7767,17 @@
         <v>116</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F211" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G211" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J211" s="1">
         <v>6</v>
@@ -7523,20 +7797,20 @@
         <v>116</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F212" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G212" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J212" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
@@ -7553,20 +7827,20 @@
         <v>116</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F213" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G213" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J213" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -7583,17 +7857,17 @@
         <v>116</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F214" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G214" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J214" s="1">
         <v>5</v>
@@ -7613,20 +7887,20 @@
         <v>116</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F215" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G215" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J215" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
@@ -7643,20 +7917,20 @@
         <v>116</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F216" s="1">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G216" s="1">
         <v>1</v>
       </c>
       <c r="H216" s="1"/>
       <c r="I216" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J216" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
@@ -7673,20 +7947,20 @@
         <v>116</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F217" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G217" s="1">
         <v>1</v>
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J217" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -7703,20 +7977,20 @@
         <v>116</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F218" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G218" s="1">
         <v>1</v>
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J218" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -7733,13 +8007,13 @@
         <v>116</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F219" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G219" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1">
@@ -7763,17 +8037,17 @@
         <v>116</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="F220" s="1">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G220" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220" s="1"/>
       <c r="I220" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J220" s="1">
         <v>3</v>
@@ -7793,20 +8067,20 @@
         <v>116</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F221" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G221" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H221" s="1"/>
       <c r="I221" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J221" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
@@ -7823,20 +8097,20 @@
         <v>116</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="F222" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G222" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222" s="1"/>
       <c r="I222" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J222" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
@@ -7853,17 +8127,17 @@
         <v>116</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F223" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G223" s="1">
         <v>1</v>
       </c>
       <c r="H223" s="1"/>
       <c r="I223" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J223" s="1">
         <v>2</v>
@@ -7883,7 +8157,7 @@
         <v>116</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F224" s="1">
         <v>87</v>
@@ -7913,7 +8187,7 @@
         <v>116</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F225" s="1">
         <v>87</v>
@@ -7943,10 +8217,10 @@
         <v>116</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F226" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G226" s="1">
         <v>1</v>
@@ -7956,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="J226" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
@@ -7973,10 +8247,10 @@
         <v>116</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F227" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G227" s="1">
         <v>1</v>
@@ -7986,7 +8260,7 @@
         <v>2</v>
       </c>
       <c r="J227" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
@@ -8003,20 +8277,20 @@
         <v>116</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F228" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G228" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" s="1"/>
       <c r="I228" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J228" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -8033,10 +8307,10 @@
         <v>116</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F229" s="1">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G229" s="1">
         <v>1</v>
@@ -8046,7 +8320,7 @@
         <v>2</v>
       </c>
       <c r="J229" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
@@ -8063,10 +8337,10 @@
         <v>116</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F230" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G230" s="1">
         <v>1</v>
@@ -8093,17 +8367,17 @@
         <v>116</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F231" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G231" s="1">
         <v>1</v>
       </c>
       <c r="H231" s="1"/>
       <c r="I231" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J231" s="1">
         <v>1</v>
@@ -8123,17 +8397,17 @@
         <v>116</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F232" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G232" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" s="1"/>
       <c r="I232" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232" s="1">
         <v>1</v>
@@ -8153,7 +8427,7 @@
         <v>116</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F233" s="1">
         <v>100</v>
@@ -8183,7 +8457,7 @@
         <v>116</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F234" s="1">
         <v>100</v>
@@ -8193,15 +8467,15 @@
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>39</v>
@@ -8210,25 +8484,23 @@
         <v>40</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="F235" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G235" s="1">
-        <v>9</v>
-      </c>
-      <c r="H235" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H235" s="1"/>
       <c r="I235" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J235" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
@@ -8242,23 +8514,23 @@
         <v>40</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F236" s="1">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G236" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J236" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
@@ -8272,28 +8544,28 @@
         <v>40</v>
       </c>
       <c r="D237" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="F237" s="1">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G237" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J237" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>39</v>
@@ -8302,23 +8574,25 @@
         <v>40</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="F238" s="1">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="G238" s="1">
-        <v>2</v>
-      </c>
-      <c r="H238" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="H238" s="1">
+        <v>7</v>
+      </c>
       <c r="I238" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J238" s="1">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
@@ -8332,28 +8606,28 @@
         <v>40</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="F239" s="1">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G239" s="1">
         <v>1</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J239" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>39</v>
@@ -8362,25 +8636,23 @@
         <v>40</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F240" s="1">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G240" s="1">
-        <v>1</v>
-      </c>
-      <c r="H240" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H240" s="1"/>
       <c r="I240" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J240" s="1">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
@@ -8394,28 +8666,28 @@
         <v>40</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F241" s="1">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G241" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J241" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>39</v>
@@ -8424,25 +8696,23 @@
         <v>40</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F242" s="1">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="G242" s="1">
-        <v>13</v>
-      </c>
-      <c r="H242" s="1">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H242" s="1"/>
       <c r="I242" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J242" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
@@ -8456,23 +8726,23 @@
         <v>40</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F243" s="1">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G243" s="1">
         <v>1</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J243" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
@@ -8486,23 +8756,23 @@
         <v>40</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F244" s="1">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G244" s="1">
         <v>1</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J244" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
@@ -8516,23 +8786,23 @@
         <v>40</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F245" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G245" s="1">
         <v>1</v>
       </c>
       <c r="H245" s="1"/>
       <c r="I245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
@@ -8546,20 +8816,20 @@
         <v>40</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E246" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F246" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G246" s="1">
         <v>1</v>
       </c>
       <c r="H246" s="1"/>
       <c r="I246" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J246" s="1">
         <v>1</v>
@@ -8576,20 +8846,20 @@
         <v>40</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F247" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G247" s="1">
         <v>1</v>
       </c>
       <c r="H247" s="1"/>
       <c r="I247" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J247" s="1">
         <v>1</v>
@@ -8597,7 +8867,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>39</v>
@@ -8606,23 +8876,25 @@
         <v>40</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="F248" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G248" s="1">
-        <v>1</v>
-      </c>
-      <c r="H248" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="H248" s="1">
+        <v>1</v>
+      </c>
       <c r="I248" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J248" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
@@ -8636,23 +8908,23 @@
         <v>40</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F249" s="1">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G249" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" s="1"/>
       <c r="I249" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J249" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
@@ -8666,23 +8938,23 @@
         <v>40</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F250" s="1">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G250" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H250" s="1"/>
       <c r="I250" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J250" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -8696,23 +8968,23 @@
         <v>40</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F251" s="1">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G251" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J251" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
@@ -8726,13 +8998,13 @@
         <v>40</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F252" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G252" s="1">
         <v>1</v>
@@ -8747,7 +9019,7 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>39</v>
@@ -8756,23 +9028,25 @@
         <v>40</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F253" s="1">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G253" s="1">
         <v>1</v>
       </c>
-      <c r="H253" s="1"/>
+      <c r="H253" s="1">
+        <v>1</v>
+      </c>
       <c r="I253" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J253" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
@@ -8786,28 +9060,28 @@
         <v>40</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F254" s="1">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="G254" s="1">
         <v>1</v>
       </c>
       <c r="H254" s="1"/>
       <c r="I254" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J254" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>39</v>
@@ -8816,28 +9090,30 @@
         <v>40</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="F255" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G255" s="1">
-        <v>1</v>
-      </c>
-      <c r="H255" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="H255" s="1">
+        <v>1</v>
+      </c>
       <c r="I255" s="1">
         <v>0</v>
       </c>
       <c r="J255" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>39</v>
@@ -8846,25 +9122,23 @@
         <v>40</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F256" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G256" s="1">
-        <v>5</v>
-      </c>
-      <c r="H256" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H256" s="1"/>
       <c r="I256" s="1">
         <v>0</v>
       </c>
       <c r="J256" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
@@ -8878,10 +9152,10 @@
         <v>40</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F257" s="1">
         <v>95</v>
@@ -8908,10 +9182,10 @@
         <v>40</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F258" s="1">
         <v>95</v>
@@ -8938,13 +9212,13 @@
         <v>40</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F259" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G259" s="1">
         <v>1</v>
@@ -8968,13 +9242,13 @@
         <v>40</v>
       </c>
       <c r="D260" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E260" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F260" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G260" s="1">
         <v>1</v>
@@ -8998,13 +9272,13 @@
         <v>40</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F261" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G261" s="1">
         <v>1</v>
@@ -9019,7 +9293,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>39</v>
@@ -9028,25 +9302,23 @@
         <v>40</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="F262" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G262" s="1">
-        <v>5</v>
-      </c>
-      <c r="H262" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H262" s="1"/>
       <c r="I262" s="1">
         <v>0</v>
       </c>
       <c r="J262" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
@@ -9060,13 +9332,13 @@
         <v>40</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F263" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G263" s="1">
         <v>1</v>
@@ -9090,13 +9362,13 @@
         <v>40</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F264" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G264" s="1">
         <v>1</v>
@@ -9120,10 +9392,10 @@
         <v>40</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F265" s="1">
         <v>98</v>
@@ -9150,10 +9422,10 @@
         <v>40</v>
       </c>
       <c r="D266" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E266" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="F266" s="1">
         <v>98</v>
@@ -9180,13 +9452,13 @@
         <v>40</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F267" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G267" s="1">
         <v>1</v>
@@ -9201,7 +9473,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>39</v>
@@ -9210,30 +9482,28 @@
         <v>40</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="F268" s="1">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G268" s="1">
-        <v>5</v>
-      </c>
-      <c r="H268" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H268" s="1"/>
       <c r="I268" s="1">
         <v>0</v>
       </c>
       <c r="J268" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>39</v>
@@ -9242,23 +9512,25 @@
         <v>40</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="F269" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G269" s="1">
-        <v>1</v>
-      </c>
-      <c r="H269" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H269" s="1">
+        <v>1</v>
+      </c>
       <c r="I269" s="1">
         <v>0</v>
       </c>
       <c r="J269" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
@@ -9272,10 +9544,10 @@
         <v>40</v>
       </c>
       <c r="D270" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E270" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F270" s="1">
         <v>95</v>
@@ -9302,13 +9574,13 @@
         <v>40</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F271" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G271" s="1">
         <v>1</v>
@@ -9332,10 +9604,10 @@
         <v>40</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F272" s="1">
         <v>98</v>
@@ -9362,13 +9634,13 @@
         <v>40</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F273" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G273" s="1">
         <v>1</v>
@@ -9383,7 +9655,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>39</v>
@@ -9392,30 +9664,28 @@
         <v>40</v>
       </c>
       <c r="D274" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E274" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="E274" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F274" s="1">
         <v>100</v>
       </c>
       <c r="G274" s="1">
-        <v>4</v>
-      </c>
-      <c r="H274" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H274" s="1"/>
       <c r="I274" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>39</v>
@@ -9424,23 +9694,25 @@
         <v>40</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="F275" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G275" s="1">
-        <v>1</v>
-      </c>
-      <c r="H275" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H275" s="1">
+        <v>1</v>
+      </c>
       <c r="I275" s="1">
         <v>0</v>
       </c>
       <c r="J275" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
@@ -9454,23 +9726,23 @@
         <v>40</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F276" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G276" s="1">
         <v>1</v>
       </c>
       <c r="H276" s="1"/>
       <c r="I276" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
@@ -9484,23 +9756,23 @@
         <v>40</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F277" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G277" s="1">
         <v>1</v>
       </c>
       <c r="H277" s="1"/>
       <c r="I277" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
@@ -9514,28 +9786,28 @@
         <v>40</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F278" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G278" s="1">
         <v>1</v>
       </c>
       <c r="H278" s="1"/>
       <c r="I278" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>39</v>
@@ -9544,25 +9816,23 @@
         <v>40</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="F279" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G279" s="1">
-        <v>4</v>
-      </c>
-      <c r="H279" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H279" s="1"/>
       <c r="I279" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
@@ -9576,10 +9846,10 @@
         <v>40</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F280" s="1">
         <v>100</v>
@@ -9592,12 +9862,12 @@
         <v>0</v>
       </c>
       <c r="J280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>39</v>
@@ -9609,20 +9879,22 @@
         <v>191</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>193</v>
+        <v>11</v>
       </c>
       <c r="F281" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G281" s="1">
-        <v>1</v>
-      </c>
-      <c r="H281" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H281" s="1">
+        <v>1</v>
+      </c>
       <c r="I281" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
@@ -9639,20 +9911,20 @@
         <v>191</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F282" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G282" s="1">
         <v>1</v>
       </c>
       <c r="H282" s="1"/>
       <c r="I282" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -9669,25 +9941,25 @@
         <v>191</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F283" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G283" s="1">
         <v>1</v>
       </c>
       <c r="H283" s="1"/>
       <c r="I283" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>39</v>
@@ -9696,25 +9968,23 @@
         <v>40</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F284" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G284" s="1">
-        <v>4</v>
-      </c>
-      <c r="H284" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H284" s="1"/>
       <c r="I284" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
@@ -9728,13 +9998,13 @@
         <v>40</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F285" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G285" s="1">
         <v>1</v>
@@ -9744,7 +10014,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
@@ -9758,10 +10028,10 @@
         <v>40</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F286" s="1">
         <v>100</v>
@@ -9774,12 +10044,12 @@
         <v>0</v>
       </c>
       <c r="J286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>39</v>
@@ -9791,17 +10061,19 @@
         <v>195</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="F287" s="1">
         <v>100</v>
       </c>
       <c r="G287" s="1">
-        <v>1</v>
-      </c>
-      <c r="H287" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H287" s="1">
+        <v>1</v>
+      </c>
       <c r="I287" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J287" s="1">
         <v>0</v>
@@ -9821,7 +10093,7 @@
         <v>195</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F288" s="1">
         <v>100</v>
@@ -9831,7 +10103,7 @@
       </c>
       <c r="H288" s="1"/>
       <c r="I288" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" s="1">
         <v>0</v>
@@ -9839,128 +10111,124 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="F289" s="1">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G289" s="1">
-        <v>64</v>
-      </c>
-      <c r="H289" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H289" s="1"/>
       <c r="I289" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J289" s="1">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="F290" s="1">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G290" s="1">
-        <v>64</v>
-      </c>
-      <c r="H290" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H290" s="1"/>
       <c r="I290" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J290" s="1">
-        <v>111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E291" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D291" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E291" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F291" s="1">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="G291" s="1">
-        <v>42</v>
-      </c>
-      <c r="H291" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H291" s="1"/>
       <c r="I291" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J291" s="1">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E292" s="1" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="F292" s="1">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G292" s="1">
-        <v>28</v>
-      </c>
-      <c r="H292" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H292" s="1">
+        <v>1</v>
+      </c>
       <c r="I292" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J292" s="1">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
@@ -9968,29 +10236,29 @@
         <v>4</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D293" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E293" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F293" s="1">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G293" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J293" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
@@ -9998,19 +10266,19 @@
         <v>4</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D294" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E294" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F294" s="1">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G294" s="1">
         <v>1</v>
@@ -10020,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="J294" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
@@ -10028,29 +10296,29 @@
         <v>4</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C295" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D295" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="E295" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F295" s="1">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G295" s="1">
         <v>1</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J295" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -10058,59 +10326,61 @@
         <v>4</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E296" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D296" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E296" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="F296" s="1">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G296" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="F297" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G297" s="1">
-        <v>1</v>
-      </c>
-      <c r="H297" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H297" s="1">
+        <v>1</v>
+      </c>
       <c r="I297" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J297" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
@@ -10118,19 +10388,19 @@
         <v>4</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F298" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G298" s="1">
         <v>1</v>
@@ -10140,7 +10410,7 @@
         <v>0</v>
       </c>
       <c r="J298" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
@@ -10148,19 +10418,19 @@
         <v>4</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F299" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G299" s="1">
         <v>1</v>
@@ -10170,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="J299" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
@@ -10178,29 +10448,29 @@
         <v>4</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F300" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G300" s="1">
         <v>1</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J300" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
@@ -10208,16 +10478,16 @@
         <v>4</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E301" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D301" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E301" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="F301" s="1">
         <v>100</v>
@@ -10227,102 +10497,106 @@
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="E302" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F302" s="1">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G302" s="1">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H302" s="1">
         <v>1</v>
       </c>
       <c r="I302" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J302" s="1">
-        <v>22</v>
+        <v>119</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>212</v>
+        <v>11</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>213</v>
+        <v>11</v>
       </c>
       <c r="F303" s="1">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G303" s="1">
-        <v>1</v>
-      </c>
-      <c r="H303" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="H303" s="1">
+        <v>1</v>
+      </c>
       <c r="I303" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J303" s="1">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>214</v>
+        <v>11</v>
       </c>
       <c r="F304" s="1">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G304" s="1">
-        <v>1</v>
-      </c>
-      <c r="H304" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="H304" s="1">
+        <v>1</v>
+      </c>
       <c r="I304" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J304" s="1">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
@@ -10330,29 +10604,29 @@
         <v>4</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F305" s="1">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="G305" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" s="1">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.2">
@@ -10360,29 +10634,29 @@
         <v>4</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D306" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E306" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E306" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="F306" s="1">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G306" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H306" s="1"/>
       <c r="I306" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J306" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.2">
@@ -10390,29 +10664,29 @@
         <v>4</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F307" s="1">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G307" s="1">
         <v>1</v>
       </c>
       <c r="H307" s="1"/>
       <c r="I307" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -10420,29 +10694,29 @@
         <v>4</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F308" s="1">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G308" s="1">
         <v>1</v>
       </c>
       <c r="H308" s="1"/>
       <c r="I308" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
@@ -10450,29 +10724,29 @@
         <v>4</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F309" s="1">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G309" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H309" s="1"/>
       <c r="I309" s="1">
         <v>0</v>
       </c>
       <c r="J309" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.2">
@@ -10480,19 +10754,19 @@
         <v>4</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F310" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G310" s="1">
         <v>1</v>
@@ -10502,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="J310" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.2">
@@ -10510,19 +10784,19 @@
         <v>4</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F311" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G311" s="1">
         <v>1</v>
@@ -10532,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="J311" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.2">
@@ -10540,19 +10814,19 @@
         <v>4</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F312" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G312" s="1">
         <v>1</v>
@@ -10562,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="J312" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.2">
@@ -10570,19 +10844,19 @@
         <v>4</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="F313" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="G313" s="1">
         <v>1</v>
@@ -10592,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="J313" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -10600,29 +10874,29 @@
         <v>4</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F314" s="1">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G314" s="1">
         <v>1</v>
       </c>
       <c r="H314" s="1"/>
       <c r="I314" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J314" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.2">
@@ -10630,19 +10904,19 @@
         <v>4</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F315" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G315" s="1">
         <v>1</v>
@@ -10657,32 +10931,34 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="F316" s="1">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G316" s="1">
-        <v>1</v>
-      </c>
-      <c r="H316" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="H316" s="1">
+        <v>1</v>
+      </c>
       <c r="I316" s="1">
         <v>0</v>
       </c>
       <c r="J316" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -10690,19 +10966,19 @@
         <v>4</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F317" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G317" s="1">
         <v>1</v>
@@ -10720,19 +10996,19 @@
         <v>4</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F318" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G318" s="1">
         <v>1</v>
@@ -10750,19 +11026,19 @@
         <v>4</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F319" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G319" s="1">
         <v>1</v>
@@ -10780,19 +11056,19 @@
         <v>4</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F320" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G320" s="1">
         <v>1</v>
@@ -10810,19 +11086,19 @@
         <v>4</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F321" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G321" s="1">
         <v>1</v>
@@ -10840,19 +11116,19 @@
         <v>4</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F322" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G322" s="1">
         <v>1</v>
@@ -10870,19 +11146,19 @@
         <v>4</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="F323" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G323" s="1">
         <v>1</v>
@@ -10900,19 +11176,19 @@
         <v>4</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F324" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G324" s="1">
         <v>1</v>
@@ -10927,98 +11203,92 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="F325" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G325" s="1">
-        <v>19</v>
-      </c>
-      <c r="H325" s="1">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H325" s="1"/>
       <c r="I325" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J325" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="F326" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G326" s="1">
-        <v>19</v>
-      </c>
-      <c r="H326" s="1">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H326" s="1"/>
       <c r="I326" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J326" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="F327" s="1">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G327" s="1">
-        <v>5</v>
-      </c>
-      <c r="H327" s="1">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H327" s="1"/>
       <c r="I327" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J327" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -11026,29 +11296,29 @@
         <v>4</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E328" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C328" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F328" s="1">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="G328" s="1">
         <v>1</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J328" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
@@ -11056,29 +11326,29 @@
         <v>4</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C329" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E329" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F329" s="1">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G329" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J329" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
@@ -11086,61 +11356,59 @@
         <v>4</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E330" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="F330" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G330" s="1">
         <v>1</v>
       </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="F331" s="1">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G331" s="1">
-        <v>13</v>
-      </c>
-      <c r="H331" s="1">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H331" s="1"/>
       <c r="I331" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J331" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -11148,29 +11416,29 @@
         <v>4</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F332" s="1">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G332" s="1">
         <v>1</v>
       </c>
       <c r="H332" s="1"/>
       <c r="I332" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J332" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
@@ -11178,29 +11446,29 @@
         <v>4</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F333" s="1">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G333" s="1">
         <v>1</v>
       </c>
       <c r="H333" s="1"/>
       <c r="I333" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
@@ -11208,29 +11476,29 @@
         <v>4</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F334" s="1">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G334" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H334" s="1"/>
       <c r="I334" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J334" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -11238,29 +11506,29 @@
         <v>4</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="F335" s="1">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G335" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H335" s="1"/>
       <c r="I335" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J335" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -11268,29 +11536,29 @@
         <v>4</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F336" s="1">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G336" s="1">
         <v>1</v>
       </c>
       <c r="H336" s="1"/>
       <c r="I336" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J336" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -11298,29 +11566,29 @@
         <v>4</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="F337" s="1">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G337" s="1">
         <v>1</v>
       </c>
       <c r="H337" s="1"/>
       <c r="I337" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J337" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
@@ -11328,26 +11596,26 @@
         <v>4</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F338" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G338" s="1">
         <v>1</v>
       </c>
       <c r="H338" s="1"/>
       <c r="I338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J338" s="1">
         <v>1</v>
@@ -11355,62 +11623,66 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="F339" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G339" s="1">
-        <v>1</v>
-      </c>
-      <c r="H339" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="H339" s="1">
+        <v>4</v>
+      </c>
       <c r="I339" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J339" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="F340" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G340" s="1">
-        <v>1</v>
-      </c>
-      <c r="H340" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="H340" s="1">
+        <v>4</v>
+      </c>
       <c r="I340" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J340" s="1">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
@@ -11418,31 +11690,31 @@
         <v>3</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F341" s="1">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G341" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H341" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I341" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J341" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
@@ -11450,93 +11722,89 @@
         <v>4</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="F342" s="1">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="G342" s="1">
         <v>1</v>
       </c>
       <c r="H342" s="1"/>
       <c r="I342" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J342" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C343" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D343" s="1" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F343" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G343" s="1">
-        <v>5</v>
-      </c>
-      <c r="H343" s="1">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H343" s="1"/>
       <c r="I343" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J343" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F344" s="1">
+        <v>91</v>
+      </c>
+      <c r="G344" s="1">
+        <v>1</v>
+      </c>
+      <c r="H344" s="1"/>
+      <c r="I344" s="1">
+        <v>1</v>
+      </c>
+      <c r="J344" s="1">
         <v>2</v>
-      </c>
-      <c r="B344" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D344" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E344" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F344" s="1">
-        <v>100</v>
-      </c>
-      <c r="G344" s="1">
-        <v>5</v>
-      </c>
-      <c r="H344" s="1">
-        <v>0</v>
-      </c>
-      <c r="I344" s="1">
-        <v>1</v>
-      </c>
-      <c r="J344" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -11544,31 +11812,31 @@
         <v>3</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C345" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D345" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F345" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G345" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H345" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I345" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J345" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.2">
@@ -11576,29 +11844,29 @@
         <v>4</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C346" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D346" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="F346" s="1">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G346" s="1">
         <v>1</v>
       </c>
       <c r="H346" s="1"/>
       <c r="I346" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.2">
@@ -11606,19 +11874,19 @@
         <v>4</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D347" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="F347" s="1">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G347" s="1">
         <v>1</v>
@@ -11628,7 +11896,7 @@
         <v>1</v>
       </c>
       <c r="J347" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.2">
@@ -11636,29 +11904,29 @@
         <v>4</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D348" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="F348" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G348" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H348" s="1"/>
       <c r="I348" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J348" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
@@ -11666,29 +11934,29 @@
         <v>4</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D349" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F349" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G349" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H349" s="1"/>
       <c r="I349" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J349" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
@@ -11696,125 +11964,119 @@
         <v>4</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="D350" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="F350" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G350" s="1">
         <v>1</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J350" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="F351" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G351" s="1">
-        <v>4</v>
-      </c>
-      <c r="H351" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H351" s="1"/>
       <c r="I351" s="1">
         <v>1</v>
       </c>
       <c r="J351" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F352" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G352" s="1">
-        <v>4</v>
-      </c>
-      <c r="H352" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H352" s="1"/>
       <c r="I352" s="1">
         <v>1</v>
       </c>
       <c r="J352" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="F353" s="1">
         <v>100</v>
       </c>
       <c r="G353" s="1">
-        <v>4</v>
-      </c>
-      <c r="H353" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H353" s="1"/>
       <c r="I353" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
@@ -11822,16 +12084,16 @@
         <v>4</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="F354" s="1">
         <v>100</v>
@@ -11844,37 +12106,39 @@
         <v>0</v>
       </c>
       <c r="J354" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F355" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G355" s="1">
         <v>1</v>
       </c>
-      <c r="H355" s="1"/>
+      <c r="H355" s="1">
+        <v>1</v>
+      </c>
       <c r="I355" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J355" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
@@ -11882,56 +12146,58 @@
         <v>4</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="F356" s="1">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G356" s="1">
         <v>1</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J356" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F357" s="1">
         <v>100</v>
       </c>
       <c r="G357" s="1">
-        <v>1</v>
-      </c>
-      <c r="H357" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="H357" s="1">
+        <v>0</v>
+      </c>
       <c r="I357" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J357" s="1">
         <v>0</v>
@@ -11939,13 +12205,13 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>11</v>
@@ -11957,13 +12223,13 @@
         <v>100</v>
       </c>
       <c r="G358" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H358" s="1">
         <v>0</v>
       </c>
       <c r="I358" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J358" s="1">
         <v>0</v>
@@ -11971,16 +12237,16 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>11</v>
@@ -11989,13 +12255,13 @@
         <v>100</v>
       </c>
       <c r="G359" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H359" s="1">
         <v>0</v>
       </c>
       <c r="I359" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J359" s="1">
         <v>0</v>
@@ -12003,31 +12269,29 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F360" s="1">
         <v>100</v>
       </c>
       <c r="G360" s="1">
-        <v>0</v>
-      </c>
-      <c r="H360" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H360" s="1"/>
       <c r="I360" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J360" s="1">
         <v>0</v>
@@ -12035,31 +12299,29 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F361" s="1">
         <v>100</v>
       </c>
       <c r="G361" s="1">
-        <v>4</v>
-      </c>
-      <c r="H361" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H361" s="1"/>
       <c r="I361" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J361" s="1">
         <v>0</v>
@@ -12067,31 +12329,29 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F362" s="1">
         <v>100</v>
       </c>
       <c r="G362" s="1">
-        <v>4</v>
-      </c>
-      <c r="H362" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H362" s="1"/>
       <c r="I362" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J362" s="1">
         <v>0</v>
@@ -12099,31 +12359,29 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F363" s="1">
         <v>100</v>
       </c>
       <c r="G363" s="1">
-        <v>4</v>
-      </c>
-      <c r="H363" s="1">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H363" s="1"/>
       <c r="I363" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J363" s="1">
         <v>0</v>
@@ -12134,16 +12392,16 @@
         <v>4</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F364" s="1">
         <v>100</v>
@@ -12161,29 +12419,31 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F365" s="1">
         <v>100</v>
       </c>
       <c r="G365" s="1">
-        <v>1</v>
-      </c>
-      <c r="H365" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H365" s="1">
+        <v>0</v>
+      </c>
       <c r="I365" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J365" s="1">
         <v>0</v>
@@ -12191,29 +12451,31 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F366" s="1">
         <v>100</v>
       </c>
       <c r="G366" s="1">
-        <v>1</v>
-      </c>
-      <c r="H366" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H366" s="1">
+        <v>0</v>
+      </c>
       <c r="I366" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J366" s="1">
         <v>0</v>
@@ -12221,37 +12483,651 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F367" s="1">
         <v>100</v>
       </c>
       <c r="G367" s="1">
-        <v>1</v>
-      </c>
-      <c r="H367" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="H367" s="1">
+        <v>0</v>
+      </c>
       <c r="I367" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J367" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F368" s="1">
+        <v>100</v>
+      </c>
+      <c r="G368" s="1">
+        <v>1</v>
+      </c>
+      <c r="H368" s="1"/>
+      <c r="I368" s="1">
+        <v>0</v>
+      </c>
+      <c r="J368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F369" s="1">
+        <v>100</v>
+      </c>
+      <c r="G369" s="1">
+        <v>1</v>
+      </c>
+      <c r="H369" s="1"/>
+      <c r="I369" s="1">
+        <v>0</v>
+      </c>
+      <c r="J369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F370" s="1">
+        <v>100</v>
+      </c>
+      <c r="G370" s="1">
+        <v>1</v>
+      </c>
+      <c r="H370" s="1"/>
+      <c r="I370" s="1">
+        <v>1</v>
+      </c>
+      <c r="J370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F371" s="1">
+        <v>100</v>
+      </c>
+      <c r="G371" s="1">
+        <v>1</v>
+      </c>
+      <c r="H371" s="1"/>
+      <c r="I371" s="1">
+        <v>0</v>
+      </c>
+      <c r="J371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F372" s="1">
+        <v>100</v>
+      </c>
+      <c r="G372" s="1">
+        <v>6</v>
+      </c>
+      <c r="H372" s="1">
+        <v>0</v>
+      </c>
+      <c r="I372" s="1">
+        <v>0</v>
+      </c>
+      <c r="J372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F373" s="1">
+        <v>100</v>
+      </c>
+      <c r="G373" s="1">
+        <v>6</v>
+      </c>
+      <c r="H373" s="1">
+        <v>0</v>
+      </c>
+      <c r="I373" s="1">
+        <v>0</v>
+      </c>
+      <c r="J373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F374" s="1">
+        <v>100</v>
+      </c>
+      <c r="G374" s="1">
+        <v>6</v>
+      </c>
+      <c r="H374" s="1">
+        <v>0</v>
+      </c>
+      <c r="I374" s="1">
+        <v>0</v>
+      </c>
+      <c r="J374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F375" s="1">
+        <v>100</v>
+      </c>
+      <c r="G375" s="1">
+        <v>1</v>
+      </c>
+      <c r="H375" s="1"/>
+      <c r="I375" s="1">
+        <v>0</v>
+      </c>
+      <c r="J375" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F376" s="1">
+        <v>100</v>
+      </c>
+      <c r="G376" s="1">
+        <v>1</v>
+      </c>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1">
+        <v>0</v>
+      </c>
+      <c r="J376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F377" s="1">
+        <v>100</v>
+      </c>
+      <c r="G377" s="1">
+        <v>1</v>
+      </c>
+      <c r="H377" s="1"/>
+      <c r="I377" s="1">
+        <v>0</v>
+      </c>
+      <c r="J377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F378" s="1">
+        <v>100</v>
+      </c>
+      <c r="G378" s="1">
+        <v>1</v>
+      </c>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1">
+        <v>0</v>
+      </c>
+      <c r="J378" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F379" s="1">
+        <v>100</v>
+      </c>
+      <c r="G379" s="1">
+        <v>1</v>
+      </c>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1">
+        <v>0</v>
+      </c>
+      <c r="J379" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F380" s="1">
+        <v>100</v>
+      </c>
+      <c r="G380" s="1">
+        <v>1</v>
+      </c>
+      <c r="H380" s="1"/>
+      <c r="I380" s="1">
+        <v>0</v>
+      </c>
+      <c r="J380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F381" s="1">
+        <v>100</v>
+      </c>
+      <c r="G381" s="1">
+        <v>4</v>
+      </c>
+      <c r="H381" s="1">
+        <v>0</v>
+      </c>
+      <c r="I381" s="1">
+        <v>0</v>
+      </c>
+      <c r="J381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F382" s="1">
+        <v>100</v>
+      </c>
+      <c r="G382" s="1">
+        <v>4</v>
+      </c>
+      <c r="H382" s="1">
+        <v>0</v>
+      </c>
+      <c r="I382" s="1">
+        <v>0</v>
+      </c>
+      <c r="J382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F383" s="1">
+        <v>100</v>
+      </c>
+      <c r="G383" s="1">
+        <v>4</v>
+      </c>
+      <c r="H383" s="1">
+        <v>0</v>
+      </c>
+      <c r="I383" s="1">
+        <v>0</v>
+      </c>
+      <c r="J383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F384" s="1">
+        <v>100</v>
+      </c>
+      <c r="G384" s="1">
+        <v>1</v>
+      </c>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1">
+        <v>0</v>
+      </c>
+      <c r="J384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F385" s="1">
+        <v>100</v>
+      </c>
+      <c r="G385" s="1">
+        <v>1</v>
+      </c>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1">
+        <v>0</v>
+      </c>
+      <c r="J385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F386" s="1">
+        <v>100</v>
+      </c>
+      <c r="G386" s="1">
+        <v>1</v>
+      </c>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1">
+        <v>0</v>
+      </c>
+      <c r="J386" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F387" s="1">
+        <v>100</v>
+      </c>
+      <c r="G387" s="1">
+        <v>1</v>
+      </c>
+      <c r="H387" s="1"/>
+      <c r="I387" s="1">
+        <v>0</v>
+      </c>
+      <c r="J387" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J367"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:J387"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>